--- a/va_facility_data_2025-02-20/McAllen VA Clinic - Facility Data.xlsx"; filename*=UTF-8''McAllen%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/McAllen VA Clinic - Facility Data.xlsx"; filename*=UTF-8''McAllen%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd8e1182e63f641c487c9be76654b4db2"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd2beb4edb5e0448185d1f85fc8204879"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5c587d733ed6405099fdb1b85ee0f5ff"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R052301d905c143ed830cf76db5c0025f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4e7035e192764957ae53996896abc6e6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb4f376328834451da0f46d9aba9b229e"/>
   </x:sheets>
 </x:workbook>
 </file>
